--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.22839533333334</v>
+        <v>19.524618</v>
       </c>
       <c r="N2">
-        <v>87.685186</v>
+        <v>58.573854</v>
       </c>
       <c r="O2">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P2">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q2">
-        <v>0.5696516822482224</v>
+        <v>0.5295662140139999</v>
       </c>
       <c r="R2">
-        <v>5.126865140234001</v>
+        <v>4.766095926126</v>
       </c>
       <c r="S2">
-        <v>0.03159253088798365</v>
+        <v>0.03992127098166975</v>
       </c>
       <c r="T2">
-        <v>0.03539889194011133</v>
+        <v>0.0436188998819287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H3">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I3">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J3">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.24435933333333</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>45.733078</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P3">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q3">
-        <v>0.2971074819535556</v>
+        <v>0.413472758198</v>
       </c>
       <c r="R3">
-        <v>2.673967337582</v>
+        <v>3.721254823782</v>
       </c>
       <c r="S3">
-        <v>0.01647739766803443</v>
+        <v>0.03116958292797055</v>
       </c>
       <c r="T3">
-        <v>0.01846264300802969</v>
+        <v>0.03405660400243488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H4">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I4">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J4">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.177737</v>
+        <v>11.9507005</v>
       </c>
       <c r="N4">
-        <v>42.355474</v>
+        <v>23.901401</v>
       </c>
       <c r="O4">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P4">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q4">
-        <v>0.4127470348843334</v>
+        <v>0.3241388496615</v>
       </c>
       <c r="R4">
-        <v>2.476482209306</v>
+        <v>1.944833097969</v>
       </c>
       <c r="S4">
-        <v>0.02289069593728504</v>
+        <v>0.02443515940139142</v>
       </c>
       <c r="T4">
-        <v>0.01709908954516211</v>
+        <v>0.01779894519586897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.255165</v>
+        <v>0.027123</v>
       </c>
       <c r="H5">
-        <v>0.7654949999999999</v>
+        <v>0.081369</v>
       </c>
       <c r="I5">
-        <v>0.9290393755066968</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J5">
-        <v>0.9290393755066969</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>29.22839533333334</v>
+        <v>0.272275</v>
       </c>
       <c r="N5">
-        <v>87.685186</v>
+        <v>0.816825</v>
       </c>
       <c r="O5">
-        <v>0.4452121315669254</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P5">
-        <v>0.498852598788108</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q5">
-        <v>7.458063495229999</v>
+        <v>0.007384914824999999</v>
       </c>
       <c r="R5">
-        <v>67.12257145706999</v>
+        <v>0.066464233425</v>
       </c>
       <c r="S5">
-        <v>0.4136196006789417</v>
+        <v>0.0005567107154943637</v>
       </c>
       <c r="T5">
-        <v>0.4634537068479967</v>
+        <v>0.0006082749462935531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I6">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J6">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.24435933333333</v>
+        <v>19.524618</v>
       </c>
       <c r="N6">
-        <v>45.733078</v>
+        <v>58.573854</v>
       </c>
       <c r="O6">
-        <v>0.232204800700274</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P6">
-        <v>0.2601815181287207</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q6">
-        <v>3.88982694929</v>
+        <v>4.981999151969999</v>
       </c>
       <c r="R6">
-        <v>35.00844254360999</v>
+        <v>44.83799236773</v>
       </c>
       <c r="S6">
-        <v>0.2157274030322396</v>
+        <v>0.3755672716896273</v>
       </c>
       <c r="T6">
-        <v>0.241718875120691</v>
+        <v>0.4103534486735367</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,40 +853,164 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I7">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J7">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>15.24435933333334</v>
+      </c>
+      <c r="N7">
+        <v>45.73307800000001</v>
+      </c>
+      <c r="O7">
+        <v>0.324403614112412</v>
+      </c>
+      <c r="P7">
+        <v>0.3544508583357054</v>
+      </c>
+      <c r="Q7">
+        <v>3.88982694929</v>
+      </c>
+      <c r="R7">
+        <v>35.00844254361</v>
+      </c>
+      <c r="S7">
+        <v>0.2932340311844415</v>
+      </c>
+      <c r="T7">
+        <v>0.3203942543332705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.255165</v>
+      </c>
+      <c r="H8">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9039172759734738</v>
+      </c>
+      <c r="J8">
+        <v>0.9039172759734738</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>21.177737</v>
-      </c>
-      <c r="N7">
-        <v>42.355474</v>
-      </c>
-      <c r="O7">
-        <v>0.3225830677328007</v>
-      </c>
-      <c r="P7">
-        <v>0.2409658830831714</v>
-      </c>
-      <c r="Q7">
-        <v>5.403817261605</v>
-      </c>
-      <c r="R7">
-        <v>32.42290356962999</v>
-      </c>
-      <c r="S7">
-        <v>0.2996923717955157</v>
-      </c>
-      <c r="T7">
-        <v>0.2238667935380093</v>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.9507005</v>
+      </c>
+      <c r="N8">
+        <v>23.901401</v>
+      </c>
+      <c r="O8">
+        <v>0.2543137660693869</v>
+      </c>
+      <c r="P8">
+        <v>0.1852460510065796</v>
+      </c>
+      <c r="Q8">
+        <v>3.0494004930825</v>
+      </c>
+      <c r="R8">
+        <v>18.296402958495</v>
+      </c>
+      <c r="S8">
+        <v>0.2298786066679955</v>
+      </c>
+      <c r="T8">
+        <v>0.1674471058107107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.255165</v>
+      </c>
+      <c r="H9">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9039172759734738</v>
+      </c>
+      <c r="J9">
+        <v>0.9039172759734738</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.272275</v>
+      </c>
+      <c r="N9">
+        <v>0.816825</v>
+      </c>
+      <c r="O9">
+        <v>0.005794077146903843</v>
+      </c>
+      <c r="P9">
+        <v>0.006330742102249548</v>
+      </c>
+      <c r="Q9">
+        <v>0.06947505037499999</v>
+      </c>
+      <c r="R9">
+        <v>0.625275453375</v>
+      </c>
+      <c r="S9">
+        <v>0.005237366431409479</v>
+      </c>
+      <c r="T9">
+        <v>0.005722467155955994</v>
       </c>
     </row>
   </sheetData>
